--- a/public/assets/templates/busetas.xlsx
+++ b/public/assets/templates/busetas.xlsx
@@ -820,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -920,6 +920,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -971,7 +978,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="199">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1580,7 +1587,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1592,15 +1599,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1612,15 +1619,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1628,11 +1631,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="33" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1644,15 +1647,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1675,6 +1674,10 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1896,7 +1899,7 @@
   </sheetPr>
   <dimension ref="A1:AL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -30001,8 +30004,8 @@
   </sheetPr>
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA31" activeCellId="0" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.50390625" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30718,7 +30721,7 @@
       <c r="AA21" s="150"/>
       <c r="AB21" s="151"/>
     </row>
-    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -30748,178 +30751,178 @@
       <c r="AA22" s="152"/>
       <c r="AB22" s="154"/>
     </row>
-    <row r="23" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
       <c r="M23" s="153"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
-      <c r="V23" s="152"/>
-      <c r="W23" s="152"/>
-      <c r="X23" s="152"/>
-      <c r="Y23" s="152"/>
-      <c r="Z23" s="152"/>
-      <c r="AA23" s="152"/>
-      <c r="AB23" s="155"/>
-    </row>
-    <row r="24" customFormat="false" ht="123" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="156"/>
+    </row>
+    <row r="24" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
       <c r="M24" s="153"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="152"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="152"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="152"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="156"/>
-    </row>
-    <row r="25" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="157"/>
+    </row>
+    <row r="25" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
       <c r="M25" s="158"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="159"/>
-      <c r="S25" s="159"/>
-      <c r="T25" s="159"/>
-      <c r="U25" s="159"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
-      <c r="Y25" s="159"/>
-      <c r="Z25" s="159"/>
-      <c r="AA25" s="159"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="155"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="155"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
       <c r="AB25" s="159"/>
     </row>
-    <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="8"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="161"/>
-      <c r="Z26" s="161"/>
-      <c r="AA26" s="161"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
       <c r="AB26" s="149"/>
     </row>
-    <row r="27" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="8"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
       <c r="AB27" s="149"/>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="8"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="163"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
       <c r="AB28" s="149"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -30928,131 +30931,131 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="8"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="165" t="s">
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="Q29" s="165"/>
-      <c r="R29" s="165"/>
-      <c r="S29" s="165"/>
-      <c r="T29" s="165"/>
-      <c r="U29" s="165"/>
-      <c r="V29" s="165"/>
-      <c r="W29" s="165"/>
-      <c r="X29" s="165"/>
-      <c r="Y29" s="165"/>
-      <c r="Z29" s="165"/>
-      <c r="AA29" s="165"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="163"/>
+      <c r="AA29" s="163"/>
       <c r="AB29" s="149"/>
     </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C30" s="8"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="164"/>
-      <c r="N30" s="164"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="166" t="s">
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="L30" s="164"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="167"/>
-      <c r="V30" s="168" t="s">
+      <c r="Q30" s="165"/>
+      <c r="R30" s="165"/>
+      <c r="S30" s="165"/>
+      <c r="T30" s="165"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="W30" s="169"/>
-      <c r="X30" s="169"/>
-      <c r="Y30" s="169"/>
-      <c r="Z30" s="169"/>
-      <c r="AA30" s="170"/>
+      <c r="W30" s="167"/>
+      <c r="X30" s="167"/>
+      <c r="Y30" s="167"/>
+      <c r="Z30" s="167"/>
+      <c r="AA30" s="168"/>
       <c r="AB30" s="149"/>
     </row>
-    <row r="31" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="171"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="166" t="s">
+    <row r="31" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C31" s="169"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="167"/>
-      <c r="V31" s="168" t="s">
+      <c r="Q31" s="165"/>
+      <c r="R31" s="165"/>
+      <c r="S31" s="165"/>
+      <c r="T31" s="165"/>
+      <c r="U31" s="166"/>
+      <c r="V31" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="W31" s="169"/>
-      <c r="X31" s="169"/>
-      <c r="Y31" s="169"/>
-      <c r="Z31" s="169"/>
-      <c r="AA31" s="170"/>
+      <c r="W31" s="167"/>
+      <c r="X31" s="167"/>
+      <c r="Y31" s="167"/>
+      <c r="Z31" s="167"/>
+      <c r="AA31" s="168"/>
       <c r="AB31" s="151"/>
     </row>
-    <row r="32" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="172"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="160"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="164"/>
-      <c r="O32" s="164"/>
-      <c r="P32" s="166" t="s">
+    <row r="32" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C32" s="170"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="165" t="s">
         <v>120</v>
       </c>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="167"/>
-      <c r="V32" s="168" t="s">
+      <c r="Q32" s="165"/>
+      <c r="R32" s="165"/>
+      <c r="S32" s="165"/>
+      <c r="T32" s="165"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="W32" s="169"/>
-      <c r="X32" s="169"/>
-      <c r="Y32" s="169"/>
-      <c r="Z32" s="169"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="173"/>
+      <c r="W32" s="167"/>
+      <c r="X32" s="167"/>
+      <c r="Y32" s="167"/>
+      <c r="Z32" s="167"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="171"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -31060,33 +31063,33 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="172"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="164"/>
-      <c r="N33" s="164"/>
-      <c r="O33" s="164"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="174"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
+    <row r="33" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C33" s="170"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+      <c r="L33" s="164"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="172"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="172"/>
+      <c r="X33" s="172"/>
+      <c r="Y33" s="172"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="175"/>
+      <c r="AB33" s="173"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -31094,7 +31097,7 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C34" s="8"/>
       <c r="D34" s="164"/>
       <c r="E34" s="164"/>
@@ -31105,756 +31108,756 @@
       <c r="J34" s="164"/>
       <c r="K34" s="164"/>
       <c r="L34" s="164"/>
-      <c r="M34" s="164"/>
-      <c r="N34" s="164"/>
-      <c r="O34" s="164"/>
-      <c r="P34" s="165" t="s">
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="165"/>
-      <c r="S34" s="165"/>
-      <c r="T34" s="165"/>
-      <c r="U34" s="165"/>
-      <c r="V34" s="165"/>
-      <c r="W34" s="165"/>
-      <c r="X34" s="165"/>
-      <c r="Y34" s="165"/>
-      <c r="Z34" s="165"/>
-      <c r="AA34" s="165"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="163"/>
+      <c r="S34" s="163"/>
+      <c r="T34" s="163"/>
+      <c r="U34" s="163"/>
+      <c r="V34" s="163"/>
+      <c r="W34" s="163"/>
+      <c r="X34" s="163"/>
+      <c r="Y34" s="163"/>
+      <c r="Z34" s="163"/>
+      <c r="AA34" s="163"/>
       <c r="AB34" s="151"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C35" s="8"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="166" t="s">
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="Q35" s="166"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="166"/>
-      <c r="U35" s="167"/>
-      <c r="V35" s="168" t="s">
+      <c r="Q35" s="165"/>
+      <c r="R35" s="165"/>
+      <c r="S35" s="165"/>
+      <c r="T35" s="165"/>
+      <c r="U35" s="166"/>
+      <c r="V35" s="174" t="s">
         <v>117</v>
       </c>
-      <c r="W35" s="169"/>
-      <c r="X35" s="169"/>
-      <c r="Y35" s="169"/>
-      <c r="Z35" s="169"/>
-      <c r="AA35" s="170"/>
+      <c r="W35" s="174"/>
+      <c r="X35" s="174"/>
+      <c r="Y35" s="174"/>
+      <c r="Z35" s="167"/>
+      <c r="AA35" s="168"/>
       <c r="AB35" s="151"/>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C36" s="8"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164" t="s">
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="164"/>
-      <c r="H36" s="176" t="s">
+      <c r="G36" s="152"/>
+      <c r="H36" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="166" t="s">
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="Q36" s="166"/>
-      <c r="R36" s="166"/>
-      <c r="S36" s="166"/>
-      <c r="T36" s="166"/>
-      <c r="U36" s="167"/>
-      <c r="V36" s="168" t="s">
+      <c r="Q36" s="165"/>
+      <c r="R36" s="165"/>
+      <c r="S36" s="165"/>
+      <c r="T36" s="165"/>
+      <c r="U36" s="166"/>
+      <c r="V36" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="W36" s="169"/>
-      <c r="X36" s="169"/>
-      <c r="Y36" s="169"/>
-      <c r="Z36" s="169"/>
-      <c r="AA36" s="170"/>
+      <c r="W36" s="174"/>
+      <c r="X36" s="174"/>
+      <c r="Y36" s="174"/>
+      <c r="Z36" s="174"/>
+      <c r="AA36" s="168"/>
       <c r="AB36" s="151"/>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C37" s="8"/>
-      <c r="D37" s="177" t="s">
+      <c r="D37" s="176" t="s">
         <v>125</v>
       </c>
       <c r="E37" s="27"/>
-      <c r="F37" s="178" t="s">
+      <c r="F37" s="177" t="s">
         <v>126</v>
       </c>
       <c r="G37" s="27"/>
-      <c r="H37" s="179" t="s">
+      <c r="H37" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="I37" s="177"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="166" t="s">
+      <c r="I37" s="176"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="165" t="s">
         <v>120</v>
       </c>
-      <c r="Q37" s="166"/>
-      <c r="R37" s="166"/>
-      <c r="S37" s="166"/>
-      <c r="T37" s="166"/>
-      <c r="U37" s="167"/>
-      <c r="V37" s="168" t="s">
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
+      <c r="U37" s="166"/>
+      <c r="V37" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="W37" s="169"/>
-      <c r="X37" s="169"/>
-      <c r="Y37" s="169"/>
-      <c r="Z37" s="169"/>
-      <c r="AA37" s="170"/>
+      <c r="W37" s="174"/>
+      <c r="X37" s="174"/>
+      <c r="Y37" s="174"/>
+      <c r="Z37" s="174"/>
+      <c r="AA37" s="168"/>
       <c r="AB37" s="151"/>
     </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C38" s="8"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
-      <c r="S38" s="180"/>
-      <c r="T38" s="180"/>
-      <c r="U38" s="180"/>
-      <c r="V38" s="180"/>
-      <c r="W38" s="180"/>
-      <c r="X38" s="180"/>
-      <c r="Y38" s="180"/>
-      <c r="Z38" s="180"/>
-      <c r="AA38" s="180"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
+      <c r="S38" s="179"/>
+      <c r="T38" s="179"/>
+      <c r="U38" s="179"/>
+      <c r="V38" s="179"/>
+      <c r="W38" s="179"/>
+      <c r="X38" s="179"/>
+      <c r="Y38" s="179"/>
+      <c r="Z38" s="179"/>
+      <c r="AA38" s="179"/>
       <c r="AB38" s="151"/>
     </row>
-    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C39" s="8"/>
-      <c r="D39" s="181"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="181"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="181"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="181"/>
-      <c r="M39" s="181"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="181"/>
-      <c r="T39" s="181"/>
-      <c r="U39" s="181"/>
-      <c r="V39" s="181"/>
-      <c r="W39" s="181"/>
-      <c r="X39" s="181"/>
-      <c r="Y39" s="181"/>
-      <c r="Z39" s="181"/>
-      <c r="AA39" s="181"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="180"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="180"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
+      <c r="S39" s="180"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="180"/>
+      <c r="V39" s="180"/>
+      <c r="W39" s="180"/>
+      <c r="X39" s="180"/>
+      <c r="Y39" s="180"/>
+      <c r="Z39" s="180"/>
+      <c r="AA39" s="180"/>
       <c r="AB39" s="151"/>
     </row>
-    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C40" s="8"/>
-      <c r="D40" s="181"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="181"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="181"/>
-      <c r="M40" s="181"/>
-      <c r="N40" s="181"/>
-      <c r="O40" s="181"/>
-      <c r="P40" s="181"/>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="181"/>
-      <c r="S40" s="181"/>
-      <c r="T40" s="181"/>
-      <c r="U40" s="181"/>
-      <c r="V40" s="181"/>
-      <c r="W40" s="181"/>
-      <c r="X40" s="181"/>
-      <c r="Y40" s="181"/>
-      <c r="Z40" s="181"/>
-      <c r="AA40" s="181"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
+      <c r="S40" s="180"/>
+      <c r="T40" s="180"/>
+      <c r="U40" s="180"/>
+      <c r="V40" s="180"/>
+      <c r="W40" s="180"/>
+      <c r="X40" s="180"/>
+      <c r="Y40" s="180"/>
+      <c r="Z40" s="180"/>
+      <c r="AA40" s="180"/>
       <c r="AB40" s="151"/>
     </row>
-    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C41" s="8"/>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="181"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
-      <c r="S41" s="181"/>
-      <c r="T41" s="181"/>
-      <c r="U41" s="181"/>
-      <c r="V41" s="181"/>
-      <c r="W41" s="181"/>
-      <c r="X41" s="181"/>
-      <c r="Y41" s="181"/>
-      <c r="Z41" s="181"/>
-      <c r="AA41" s="181"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
+      <c r="S41" s="180"/>
+      <c r="T41" s="180"/>
+      <c r="U41" s="180"/>
+      <c r="V41" s="180"/>
+      <c r="W41" s="180"/>
+      <c r="X41" s="180"/>
+      <c r="Y41" s="180"/>
+      <c r="Z41" s="180"/>
+      <c r="AA41" s="180"/>
       <c r="AB41" s="151"/>
     </row>
-    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C42" s="8"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="181"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="181"/>
-      <c r="M42" s="181"/>
-      <c r="N42" s="181"/>
-      <c r="O42" s="181"/>
-      <c r="P42" s="181"/>
-      <c r="Q42" s="181"/>
-      <c r="R42" s="181"/>
-      <c r="S42" s="181"/>
-      <c r="T42" s="181"/>
-      <c r="U42" s="181"/>
-      <c r="V42" s="181"/>
-      <c r="W42" s="181"/>
-      <c r="X42" s="181"/>
-      <c r="Y42" s="181"/>
-      <c r="Z42" s="181"/>
-      <c r="AA42" s="181"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="180"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="180"/>
+      <c r="Q42" s="180"/>
+      <c r="R42" s="180"/>
+      <c r="S42" s="180"/>
+      <c r="T42" s="180"/>
+      <c r="U42" s="180"/>
+      <c r="V42" s="180"/>
+      <c r="W42" s="180"/>
+      <c r="X42" s="180"/>
+      <c r="Y42" s="180"/>
+      <c r="Z42" s="180"/>
+      <c r="AA42" s="180"/>
       <c r="AB42" s="151"/>
     </row>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C43" s="8"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="164"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="180"/>
-      <c r="S43" s="180"/>
-      <c r="T43" s="180"/>
-      <c r="U43" s="180"/>
-      <c r="V43" s="180"/>
-      <c r="W43" s="180"/>
-      <c r="X43" s="180"/>
-      <c r="Y43" s="180"/>
-      <c r="Z43" s="180"/>
-      <c r="AA43" s="180"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="179"/>
+      <c r="Q43" s="179"/>
+      <c r="R43" s="179"/>
+      <c r="S43" s="179"/>
+      <c r="T43" s="179"/>
+      <c r="U43" s="179"/>
+      <c r="V43" s="179"/>
+      <c r="W43" s="179"/>
+      <c r="X43" s="179"/>
+      <c r="Y43" s="179"/>
+      <c r="Z43" s="179"/>
+      <c r="AA43" s="179"/>
       <c r="AB43" s="151"/>
     </row>
-    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C44" s="8"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="180"/>
-      <c r="S44" s="180"/>
-      <c r="T44" s="180"/>
-      <c r="U44" s="180"/>
-      <c r="V44" s="180"/>
-      <c r="W44" s="180"/>
-      <c r="X44" s="180"/>
-      <c r="Y44" s="180"/>
-      <c r="Z44" s="180"/>
-      <c r="AA44" s="180"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="152"/>
+      <c r="N44" s="152"/>
+      <c r="O44" s="152"/>
+      <c r="P44" s="179"/>
+      <c r="Q44" s="179"/>
+      <c r="R44" s="179"/>
+      <c r="S44" s="179"/>
+      <c r="T44" s="179"/>
+      <c r="U44" s="179"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
+      <c r="X44" s="179"/>
+      <c r="Y44" s="179"/>
+      <c r="Z44" s="179"/>
+      <c r="AA44" s="179"/>
       <c r="AB44" s="151"/>
     </row>
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C45" s="8"/>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="182"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="182"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="182"/>
-      <c r="O45" s="182"/>
-      <c r="P45" s="182"/>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="182"/>
-      <c r="S45" s="182"/>
-      <c r="T45" s="182"/>
-      <c r="U45" s="182"/>
-      <c r="V45" s="182"/>
-      <c r="W45" s="182"/>
-      <c r="X45" s="182"/>
-      <c r="Y45" s="182"/>
-      <c r="Z45" s="182"/>
-      <c r="AA45" s="182"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="181"/>
+      <c r="N45" s="181"/>
+      <c r="O45" s="181"/>
+      <c r="P45" s="181"/>
+      <c r="Q45" s="181"/>
+      <c r="R45" s="181"/>
+      <c r="S45" s="181"/>
+      <c r="T45" s="181"/>
+      <c r="U45" s="181"/>
+      <c r="V45" s="181"/>
+      <c r="W45" s="181"/>
+      <c r="X45" s="181"/>
+      <c r="Y45" s="181"/>
+      <c r="Z45" s="181"/>
+      <c r="AA45" s="181"/>
       <c r="AB45" s="151"/>
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="8"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
-      <c r="L46" s="183"/>
-      <c r="M46" s="183"/>
-      <c r="N46" s="183"/>
-      <c r="O46" s="183"/>
-      <c r="P46" s="183"/>
-      <c r="Q46" s="183"/>
-      <c r="R46" s="183"/>
-      <c r="S46" s="183"/>
-      <c r="T46" s="183"/>
-      <c r="U46" s="183"/>
-      <c r="V46" s="183"/>
-      <c r="W46" s="183"/>
-      <c r="X46" s="183"/>
-      <c r="Y46" s="183"/>
-      <c r="Z46" s="183"/>
-      <c r="AA46" s="183"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="182"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="182"/>
+      <c r="L46" s="182"/>
+      <c r="M46" s="182"/>
+      <c r="N46" s="182"/>
+      <c r="O46" s="182"/>
+      <c r="P46" s="182"/>
+      <c r="Q46" s="182"/>
+      <c r="R46" s="182"/>
+      <c r="S46" s="182"/>
+      <c r="T46" s="182"/>
+      <c r="U46" s="182"/>
+      <c r="V46" s="182"/>
+      <c r="W46" s="182"/>
+      <c r="X46" s="182"/>
+      <c r="Y46" s="182"/>
+      <c r="Z46" s="182"/>
+      <c r="AA46" s="182"/>
       <c r="AB46" s="151"/>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C47" s="8"/>
-      <c r="D47" s="183"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="183"/>
-      <c r="J47" s="183"/>
-      <c r="K47" s="183"/>
-      <c r="L47" s="183"/>
-      <c r="M47" s="183"/>
-      <c r="N47" s="183"/>
-      <c r="O47" s="183"/>
-      <c r="P47" s="183"/>
-      <c r="Q47" s="183"/>
-      <c r="R47" s="183"/>
-      <c r="S47" s="183"/>
-      <c r="T47" s="183"/>
-      <c r="U47" s="183"/>
-      <c r="V47" s="183"/>
-      <c r="W47" s="183"/>
-      <c r="X47" s="183"/>
-      <c r="Y47" s="183"/>
-      <c r="Z47" s="183"/>
-      <c r="AA47" s="183"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="182"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="182"/>
+      <c r="P47" s="182"/>
+      <c r="Q47" s="182"/>
+      <c r="R47" s="182"/>
+      <c r="S47" s="182"/>
+      <c r="T47" s="182"/>
+      <c r="U47" s="182"/>
+      <c r="V47" s="182"/>
+      <c r="W47" s="182"/>
+      <c r="X47" s="182"/>
+      <c r="Y47" s="182"/>
+      <c r="Z47" s="182"/>
+      <c r="AA47" s="182"/>
       <c r="AB47" s="151"/>
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="8"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="183"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="183"/>
-      <c r="O48" s="183"/>
-      <c r="P48" s="183"/>
-      <c r="Q48" s="183"/>
-      <c r="R48" s="183"/>
-      <c r="S48" s="183"/>
-      <c r="T48" s="183"/>
-      <c r="U48" s="183"/>
-      <c r="V48" s="183"/>
-      <c r="W48" s="183"/>
-      <c r="X48" s="183"/>
-      <c r="Y48" s="183"/>
-      <c r="Z48" s="183"/>
-      <c r="AA48" s="183"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
+      <c r="I48" s="182"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="182"/>
+      <c r="L48" s="182"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="182"/>
+      <c r="O48" s="182"/>
+      <c r="P48" s="182"/>
+      <c r="Q48" s="182"/>
+      <c r="R48" s="182"/>
+      <c r="S48" s="182"/>
+      <c r="T48" s="182"/>
+      <c r="U48" s="182"/>
+      <c r="V48" s="182"/>
+      <c r="W48" s="182"/>
+      <c r="X48" s="182"/>
+      <c r="Y48" s="182"/>
+      <c r="Z48" s="182"/>
+      <c r="AA48" s="182"/>
       <c r="AB48" s="151"/>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C49" s="8"/>
-      <c r="D49" s="183"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="183"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="183"/>
-      <c r="L49" s="183"/>
-      <c r="M49" s="183"/>
-      <c r="N49" s="183"/>
-      <c r="O49" s="183"/>
-      <c r="P49" s="183"/>
-      <c r="Q49" s="183"/>
-      <c r="R49" s="183"/>
-      <c r="S49" s="183"/>
-      <c r="T49" s="183"/>
-      <c r="U49" s="183"/>
-      <c r="V49" s="183"/>
-      <c r="W49" s="183"/>
-      <c r="X49" s="183"/>
-      <c r="Y49" s="183"/>
-      <c r="Z49" s="183"/>
-      <c r="AA49" s="183"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="182"/>
+      <c r="F49" s="182"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="182"/>
+      <c r="I49" s="182"/>
+      <c r="J49" s="182"/>
+      <c r="K49" s="182"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="182"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="182"/>
+      <c r="P49" s="182"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="182"/>
+      <c r="S49" s="182"/>
+      <c r="T49" s="182"/>
+      <c r="U49" s="182"/>
+      <c r="V49" s="182"/>
+      <c r="W49" s="182"/>
+      <c r="X49" s="182"/>
+      <c r="Y49" s="182"/>
+      <c r="Z49" s="182"/>
+      <c r="AA49" s="182"/>
       <c r="AB49" s="151"/>
     </row>
     <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C50" s="8"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="183"/>
-      <c r="M50" s="183"/>
-      <c r="N50" s="183"/>
-      <c r="O50" s="183"/>
-      <c r="P50" s="183"/>
-      <c r="Q50" s="183"/>
-      <c r="R50" s="183"/>
-      <c r="S50" s="183"/>
-      <c r="T50" s="183"/>
-      <c r="U50" s="183"/>
-      <c r="V50" s="183"/>
-      <c r="W50" s="183"/>
-      <c r="X50" s="183"/>
-      <c r="Y50" s="183"/>
-      <c r="Z50" s="183"/>
-      <c r="AA50" s="183"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="182"/>
+      <c r="L50" s="182"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="182"/>
+      <c r="P50" s="182"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
+      <c r="S50" s="182"/>
+      <c r="T50" s="182"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="182"/>
+      <c r="W50" s="182"/>
+      <c r="X50" s="182"/>
+      <c r="Y50" s="182"/>
+      <c r="Z50" s="182"/>
+      <c r="AA50" s="182"/>
       <c r="AB50" s="151"/>
     </row>
     <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C51" s="8"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="183"/>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
-      <c r="J51" s="183"/>
-      <c r="K51" s="183"/>
-      <c r="L51" s="183"/>
-      <c r="M51" s="183"/>
-      <c r="N51" s="183"/>
-      <c r="O51" s="183"/>
-      <c r="P51" s="183"/>
-      <c r="Q51" s="183"/>
-      <c r="R51" s="183"/>
-      <c r="S51" s="183"/>
-      <c r="T51" s="183"/>
-      <c r="U51" s="183"/>
-      <c r="V51" s="183"/>
-      <c r="W51" s="183"/>
-      <c r="X51" s="183"/>
-      <c r="Y51" s="183"/>
-      <c r="Z51" s="183"/>
-      <c r="AA51" s="183"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="182"/>
+      <c r="H51" s="182"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="182"/>
+      <c r="L51" s="182"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="182"/>
+      <c r="P51" s="182"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="182"/>
+      <c r="T51" s="182"/>
+      <c r="U51" s="182"/>
+      <c r="V51" s="182"/>
+      <c r="W51" s="182"/>
+      <c r="X51" s="182"/>
+      <c r="Y51" s="182"/>
+      <c r="Z51" s="182"/>
+      <c r="AA51" s="182"/>
       <c r="AB51" s="151"/>
     </row>
     <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C52" s="8"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
-      <c r="O52" s="164"/>
-      <c r="P52" s="180"/>
-      <c r="Q52" s="180"/>
-      <c r="R52" s="180"/>
-      <c r="S52" s="180"/>
-      <c r="T52" s="180"/>
-      <c r="U52" s="180"/>
-      <c r="V52" s="180"/>
-      <c r="W52" s="180"/>
-      <c r="X52" s="180"/>
-      <c r="Y52" s="180"/>
-      <c r="Z52" s="180"/>
-      <c r="AA52" s="180"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="152"/>
+      <c r="L52" s="152"/>
+      <c r="M52" s="152"/>
+      <c r="N52" s="152"/>
+      <c r="O52" s="152"/>
+      <c r="P52" s="179"/>
+      <c r="Q52" s="179"/>
+      <c r="R52" s="179"/>
+      <c r="S52" s="179"/>
+      <c r="T52" s="179"/>
+      <c r="U52" s="179"/>
+      <c r="V52" s="179"/>
+      <c r="W52" s="179"/>
+      <c r="X52" s="179"/>
+      <c r="Y52" s="179"/>
+      <c r="Z52" s="179"/>
+      <c r="AA52" s="179"/>
       <c r="AB52" s="151"/>
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="8"/>
-      <c r="D53" s="184"/>
-      <c r="E53" s="184"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="184"/>
-      <c r="H53" s="184"/>
-      <c r="I53" s="184"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="184"/>
-      <c r="L53" s="184"/>
-      <c r="M53" s="185"/>
-      <c r="N53" s="186"/>
-      <c r="O53" s="186"/>
-      <c r="P53" s="186"/>
-      <c r="Q53" s="186"/>
-      <c r="R53" s="186"/>
-      <c r="S53" s="186"/>
-      <c r="T53" s="186"/>
-      <c r="U53" s="186"/>
-      <c r="V53" s="186"/>
-      <c r="W53" s="186"/>
-      <c r="X53" s="186"/>
-      <c r="Y53" s="186"/>
-      <c r="Z53" s="186"/>
-      <c r="AA53" s="186"/>
-      <c r="AB53" s="187"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="183"/>
+      <c r="M53" s="184"/>
+      <c r="N53" s="185"/>
+      <c r="O53" s="185"/>
+      <c r="P53" s="185"/>
+      <c r="Q53" s="185"/>
+      <c r="R53" s="185"/>
+      <c r="S53" s="185"/>
+      <c r="T53" s="185"/>
+      <c r="U53" s="185"/>
+      <c r="V53" s="185"/>
+      <c r="W53" s="185"/>
+      <c r="X53" s="185"/>
+      <c r="Y53" s="185"/>
+      <c r="Z53" s="185"/>
+      <c r="AA53" s="185"/>
+      <c r="AB53" s="186"/>
     </row>
     <row r="54" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C54" s="8"/>
-      <c r="D54" s="188" t="s">
+      <c r="D54" s="187" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="188"/>
-      <c r="F54" s="188"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="188"/>
-      <c r="I54" s="188"/>
-      <c r="J54" s="188"/>
-      <c r="K54" s="188"/>
-      <c r="L54" s="188"/>
-      <c r="M54" s="189"/>
-      <c r="N54" s="188" t="s">
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="187"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="187"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="188"/>
+      <c r="N54" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="O54" s="188"/>
-      <c r="P54" s="188"/>
-      <c r="Q54" s="188"/>
-      <c r="R54" s="188"/>
-      <c r="S54" s="188"/>
-      <c r="T54" s="188"/>
-      <c r="U54" s="188"/>
-      <c r="V54" s="188"/>
-      <c r="W54" s="188"/>
-      <c r="X54" s="188"/>
-      <c r="Y54" s="188"/>
-      <c r="Z54" s="188"/>
-      <c r="AA54" s="188"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="187"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="187"/>
+      <c r="S54" s="187"/>
+      <c r="T54" s="187"/>
+      <c r="U54" s="187"/>
+      <c r="V54" s="187"/>
+      <c r="W54" s="187"/>
+      <c r="X54" s="187"/>
+      <c r="Y54" s="187"/>
+      <c r="Z54" s="187"/>
+      <c r="AA54" s="187"/>
       <c r="AB54" s="154"/>
     </row>
     <row r="55" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C55" s="8"/>
-      <c r="D55" s="190" t="s">
+      <c r="D55" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="190"/>
-      <c r="F55" s="190"/>
-      <c r="G55" s="190"/>
-      <c r="H55" s="190"/>
-      <c r="I55" s="190"/>
-      <c r="J55" s="190"/>
-      <c r="K55" s="190"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="191"/>
-      <c r="N55" s="192" t="s">
+      <c r="E55" s="189"/>
+      <c r="F55" s="189"/>
+      <c r="G55" s="189"/>
+      <c r="H55" s="189"/>
+      <c r="I55" s="189"/>
+      <c r="J55" s="189"/>
+      <c r="K55" s="189"/>
+      <c r="L55" s="189"/>
+      <c r="M55" s="190"/>
+      <c r="N55" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="O55" s="192"/>
-      <c r="P55" s="192"/>
-      <c r="Q55" s="192"/>
-      <c r="R55" s="192"/>
-      <c r="S55" s="192"/>
-      <c r="T55" s="192"/>
-      <c r="U55" s="192"/>
-      <c r="V55" s="192"/>
-      <c r="W55" s="192"/>
-      <c r="X55" s="192"/>
-      <c r="Y55" s="192"/>
-      <c r="Z55" s="192"/>
-      <c r="AA55" s="192"/>
-      <c r="AB55" s="155"/>
+      <c r="O55" s="191"/>
+      <c r="P55" s="191"/>
+      <c r="Q55" s="191"/>
+      <c r="R55" s="191"/>
+      <c r="S55" s="191"/>
+      <c r="T55" s="191"/>
+      <c r="U55" s="191"/>
+      <c r="V55" s="191"/>
+      <c r="W55" s="191"/>
+      <c r="X55" s="191"/>
+      <c r="Y55" s="191"/>
+      <c r="Z55" s="191"/>
+      <c r="AA55" s="191"/>
+      <c r="AB55" s="156"/>
     </row>
     <row r="56" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C56" s="8"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="191"/>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="191"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="191"/>
-      <c r="N56" s="193"/>
-      <c r="O56" s="193"/>
-      <c r="P56" s="193"/>
-      <c r="Q56" s="193"/>
-      <c r="R56" s="193"/>
-      <c r="S56" s="193"/>
-      <c r="T56" s="193"/>
-      <c r="U56" s="193"/>
-      <c r="V56" s="193"/>
-      <c r="W56" s="193"/>
-      <c r="X56" s="193"/>
-      <c r="Y56" s="193"/>
-      <c r="Z56" s="193"/>
-      <c r="AA56" s="193"/>
-      <c r="AB56" s="156"/>
+      <c r="D56" s="190"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
+      <c r="I56" s="190"/>
+      <c r="J56" s="190"/>
+      <c r="K56" s="190"/>
+      <c r="L56" s="190"/>
+      <c r="M56" s="190"/>
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="192"/>
+      <c r="S56" s="192"/>
+      <c r="T56" s="192"/>
+      <c r="U56" s="192"/>
+      <c r="V56" s="192"/>
+      <c r="W56" s="192"/>
+      <c r="X56" s="192"/>
+      <c r="Y56" s="192"/>
+      <c r="Z56" s="192"/>
+      <c r="AA56" s="192"/>
+      <c r="AB56" s="157"/>
     </row>
     <row r="57" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C57" s="8"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="191"/>
-      <c r="F57" s="191"/>
-      <c r="G57" s="191"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="191"/>
-      <c r="J57" s="191"/>
-      <c r="K57" s="191"/>
-      <c r="L57" s="191"/>
-      <c r="M57" s="191"/>
-      <c r="N57" s="193"/>
-      <c r="O57" s="193"/>
-      <c r="P57" s="193"/>
-      <c r="Q57" s="193"/>
-      <c r="R57" s="193"/>
-      <c r="S57" s="193"/>
-      <c r="T57" s="193"/>
-      <c r="U57" s="193"/>
-      <c r="V57" s="193"/>
-      <c r="W57" s="193"/>
-      <c r="X57" s="193"/>
-      <c r="Y57" s="193"/>
-      <c r="Z57" s="193"/>
-      <c r="AA57" s="193"/>
-      <c r="AB57" s="156"/>
+      <c r="D57" s="190"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="190"/>
+      <c r="H57" s="190"/>
+      <c r="I57" s="190"/>
+      <c r="J57" s="190"/>
+      <c r="K57" s="190"/>
+      <c r="L57" s="190"/>
+      <c r="M57" s="190"/>
+      <c r="N57" s="192"/>
+      <c r="O57" s="192"/>
+      <c r="P57" s="192"/>
+      <c r="Q57" s="192"/>
+      <c r="R57" s="192"/>
+      <c r="S57" s="192"/>
+      <c r="T57" s="192"/>
+      <c r="U57" s="192"/>
+      <c r="V57" s="192"/>
+      <c r="W57" s="192"/>
+      <c r="X57" s="192"/>
+      <c r="Y57" s="192"/>
+      <c r="Z57" s="192"/>
+      <c r="AA57" s="192"/>
+      <c r="AB57" s="157"/>
     </row>
     <row r="58" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="8"/>
-      <c r="D58" s="194"/>
-      <c r="E58" s="194"/>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="194"/>
-      <c r="K58" s="194"/>
-      <c r="L58" s="194"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="193"/>
+      <c r="F58" s="193"/>
+      <c r="G58" s="193"/>
+      <c r="H58" s="193"/>
+      <c r="I58" s="193"/>
+      <c r="J58" s="193"/>
+      <c r="K58" s="193"/>
+      <c r="L58" s="193"/>
       <c r="M58" s="158"/>
-      <c r="N58" s="195"/>
-      <c r="O58" s="195"/>
-      <c r="P58" s="195"/>
-      <c r="Q58" s="195"/>
-      <c r="R58" s="195"/>
-      <c r="S58" s="195"/>
-      <c r="T58" s="195"/>
-      <c r="U58" s="195"/>
-      <c r="V58" s="195"/>
-      <c r="W58" s="195"/>
-      <c r="X58" s="195"/>
-      <c r="Y58" s="195"/>
-      <c r="Z58" s="195"/>
-      <c r="AA58" s="195"/>
-      <c r="AB58" s="196"/>
+      <c r="N58" s="194"/>
+      <c r="O58" s="194"/>
+      <c r="P58" s="194"/>
+      <c r="Q58" s="194"/>
+      <c r="R58" s="194"/>
+      <c r="S58" s="194"/>
+      <c r="T58" s="194"/>
+      <c r="U58" s="194"/>
+      <c r="V58" s="194"/>
+      <c r="W58" s="194"/>
+      <c r="X58" s="194"/>
+      <c r="Y58" s="194"/>
+      <c r="Z58" s="194"/>
+      <c r="AA58" s="194"/>
+      <c r="AB58" s="195"/>
     </row>
     <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C59" s="139"/>
-      <c r="D59" s="197"/>
-      <c r="E59" s="197"/>
-      <c r="F59" s="197"/>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
-      <c r="I59" s="197"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="198"/>
-      <c r="N59" s="197"/>
-      <c r="O59" s="197"/>
-      <c r="P59" s="197"/>
-      <c r="Q59" s="197"/>
-      <c r="R59" s="197"/>
-      <c r="S59" s="197"/>
-      <c r="T59" s="197"/>
-      <c r="U59" s="197"/>
-      <c r="V59" s="197"/>
-      <c r="W59" s="197"/>
-      <c r="X59" s="197"/>
-      <c r="Y59" s="197"/>
-      <c r="Z59" s="197"/>
-      <c r="AA59" s="197"/>
-      <c r="AB59" s="199"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="196"/>
+      <c r="F59" s="196"/>
+      <c r="G59" s="196"/>
+      <c r="H59" s="196"/>
+      <c r="I59" s="196"/>
+      <c r="J59" s="196"/>
+      <c r="K59" s="196"/>
+      <c r="L59" s="196"/>
+      <c r="M59" s="197"/>
+      <c r="N59" s="196"/>
+      <c r="O59" s="196"/>
+      <c r="P59" s="196"/>
+      <c r="Q59" s="196"/>
+      <c r="R59" s="196"/>
+      <c r="S59" s="196"/>
+      <c r="T59" s="196"/>
+      <c r="U59" s="196"/>
+      <c r="V59" s="196"/>
+      <c r="W59" s="196"/>
+      <c r="X59" s="196"/>
+      <c r="Y59" s="196"/>
+      <c r="Z59" s="196"/>
+      <c r="AA59" s="196"/>
+      <c r="AB59" s="198"/>
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="145"/>
@@ -55508,7 +55511,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="25">
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="N6:AA6"/>
     <mergeCell ref="D9:G9"/>
@@ -55516,12 +55519,10 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D21:AA21"/>
-    <mergeCell ref="D22:L24"/>
-    <mergeCell ref="N22:AA24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="N25:AB25"/>
-    <mergeCell ref="D26:L33"/>
+    <mergeCell ref="D23:L27"/>
+    <mergeCell ref="N23:AA27"/>
     <mergeCell ref="P29:AA29"/>
+    <mergeCell ref="D30:L34"/>
     <mergeCell ref="P30:T30"/>
     <mergeCell ref="P31:T31"/>
     <mergeCell ref="P32:T32"/>
@@ -55529,7 +55530,6 @@
     <mergeCell ref="P35:T35"/>
     <mergeCell ref="P36:T36"/>
     <mergeCell ref="P37:T37"/>
-    <mergeCell ref="D39:AA42"/>
     <mergeCell ref="D45:AA45"/>
     <mergeCell ref="D46:AA51"/>
     <mergeCell ref="D54:L54"/>
